--- a/Tools/本地数据表/DTSys_Prefab.xlsx
+++ b/Tools/本地数据表/DTSys_Prefab.xlsx
@@ -24,158 +24,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>RolePrefab_Zy_tianshan_002_ymt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_ymt/Zy_tianshan_002_ymt.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePrefab_XiaoYao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Role_NvYao.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+  <si>
+    <t>CullDespawned</t>
+  </si>
+  <si>
+    <t>CullAbove</t>
+  </si>
+  <si>
+    <t>CullDelay</t>
+  </si>
+  <si>
+    <t>CullMaxPerPass</t>
+  </si>
+  <si>
+    <t>缓存池自动清理但是始终保留几个对象不清理</t>
+  </si>
+  <si>
+    <t>多长时间清理一次单位是秒</t>
+  </si>
+  <si>
+    <t>每次清理几个</t>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssetCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssetPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PoolId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullDespawned</t>
-  </si>
-  <si>
-    <t>CullAbove</t>
-  </si>
-  <si>
-    <t>CullDelay</t>
-  </si>
-  <si>
-    <t>CullMaxPerPass</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>byte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资源分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对象池编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否开启缓存池自动清理模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存池自动清理但是始终保留几个对象不清理</t>
-  </si>
-  <si>
-    <t>多长时间清理一次单位是秒</t>
-  </si>
-  <si>
-    <t>每次清理几个</t>
   </si>
   <si>
     <t>通用角色控制器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RoleCtrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Download/Role/RolePrefab/RoleCtrl.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePrefab_Zy_tianshan_002_yxt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_yxt/Zy_tianshan_002_yxt.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePrefab_Role_NvYao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山选人</t>
+  </si>
+  <si>
+    <t>SelectRole_TianShan</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_hyt/Zy_tianshan_002_hyt.prefab</t>
+  </si>
+  <si>
+    <t>峨眉选人</t>
+  </si>
+  <si>
+    <t>SelectRole_ErMei</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Zy_xiaoyao_001_qhlt/Zy_xiaoyao_001_qhlt.prefab</t>
+  </si>
+  <si>
+    <t>少林选人</t>
+  </si>
+  <si>
+    <t>SelectRole_ShaoLin</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Shaolin_001/Zy_shaolin_002_fjt/Zy_shaolin_002_fjt.prefab</t>
+  </si>
+  <si>
+    <t>丐帮选人</t>
+  </si>
+  <si>
+    <t>SelectRole_GaiBang</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Dali_001/Zy_dali_002_jwt/Zy_dali_002_jwt.prefab</t>
+  </si>
+  <si>
+    <t>怪1</t>
+  </si>
+  <si>
+    <t>Monster1</t>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Monster/Monster_000_wudunv_001.prefab</t>
+  </si>
+  <si>
+    <t>天山level1技能预设</t>
+  </si>
+  <si>
+    <t>TestSkillPrefab</t>
+  </si>
+  <si>
+    <t>Assets/Download/SkillPrefabs/Player/PlayerTianShan/101001.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,11 +173,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -581,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,98 +1277,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1397,16 +1376,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1426,19 +1405,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>100001</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1458,19 +1437,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>100002</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1490,19 +1469,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>100003</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1522,19 +1501,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>100004</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1549,6 +1528,70 @@
         <v>15</v>
       </c>
       <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Tools/本地数据表/DTSys_Prefab.xlsx
+++ b/Tools/本地数据表/DTSys_Prefab.xlsx
@@ -218,74 +218,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,10 +234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="979797"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="202020"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -564,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="A1:J10"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
